--- a/biology/Zoologie/Charadriidae/Charadriidae.xlsx
+++ b/biology/Zoologie/Charadriidae/Charadriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Charadriidae (ou charadriidés en français) sont une famille d'oiseaux nommés vanneaux, pluviers et gravelots. Cette famille est constituée de 12 genres et de 68 espèces existantes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des limicoles de taille petite à moyenne (entre 12 et 38 cm), à l'attitude dressée, à la tête arrondie et au court bec pointu.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On les trouve dans toutes les régions du monde, excepté l'Antarctique. Presque toutes les régions en accueillent plusieurs espèces. Ils apprécient les habitats ouverts, aussi bien humides que secs, ceux-ci incluant une grande variété de zones humides, rivages marins, prairies, toundras, steppes et semi-déserts.
 </t>
@@ -573,7 +589,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La famille est divisée en 3 sous-familles selon Alan P. Peterson.
 Les Vanellinae comprenant 26 espèces :
@@ -612,7 +630,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des pluvianellinés avec son unique espèce de Pluvianelle magellanique autrefois classée parmi les charadriidés a été considérée comme une famille à part entière par Sibley et Monroe, et maintenant par la classification de référence (version 12.2, 2022) du Congrès ornithologique international.
 </t>
@@ -643,7 +663,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 12.2, 2022) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
